--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Vldlr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0632368020017923</v>
+        <v>0.07127766666666667</v>
       </c>
       <c r="H2">
-        <v>0.0632368020017923</v>
+        <v>0.213833</v>
       </c>
       <c r="I2">
-        <v>0.05371291243154372</v>
+        <v>0.04986387490716093</v>
       </c>
       <c r="J2">
-        <v>0.05371291243154372</v>
+        <v>0.04986387490716094</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N2">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q2">
-        <v>0.1350275326084117</v>
+        <v>0.02196751551522223</v>
       </c>
       <c r="R2">
-        <v>0.1350275326084117</v>
+        <v>0.197707639637</v>
       </c>
       <c r="S2">
-        <v>0.04166141789461063</v>
+        <v>0.004592939382457854</v>
       </c>
       <c r="T2">
-        <v>0.04166141789461063</v>
+        <v>0.004592939382457855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0632368020017923</v>
+        <v>0.07127766666666667</v>
       </c>
       <c r="H3">
-        <v>0.0632368020017923</v>
+        <v>0.213833</v>
       </c>
       <c r="I3">
-        <v>0.05371291243154372</v>
+        <v>0.04986387490716093</v>
       </c>
       <c r="J3">
-        <v>0.05371291243154372</v>
+        <v>0.04986387490716094</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P3">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q3">
-        <v>0.03905972609195173</v>
+        <v>0.1573126139215556</v>
       </c>
       <c r="R3">
-        <v>0.03905972609195173</v>
+        <v>1.415813525294</v>
       </c>
       <c r="S3">
-        <v>0.01205149453693308</v>
+        <v>0.03289071535363343</v>
       </c>
       <c r="T3">
-        <v>0.01205149453693308</v>
+        <v>0.03289071535363344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.11407418597315</v>
+        <v>0.07127766666666667</v>
       </c>
       <c r="H4">
-        <v>1.11407418597315</v>
+        <v>0.213833</v>
       </c>
       <c r="I4">
-        <v>0.9462870875684563</v>
+        <v>0.04986387490716093</v>
       </c>
       <c r="J4">
-        <v>0.9462870875684563</v>
+        <v>0.04986387490716094</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N4">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q4">
-        <v>2.378847185700751</v>
+        <v>0.05921320880666667</v>
       </c>
       <c r="R4">
-        <v>2.378847185700751</v>
+        <v>0.53291887926</v>
       </c>
       <c r="S4">
-        <v>0.7339699155898187</v>
+        <v>0.01238022017106965</v>
       </c>
       <c r="T4">
-        <v>0.7339699155898187</v>
+        <v>0.01238022017106965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.03568466666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.107054</v>
+      </c>
+      <c r="I5">
+        <v>0.02496400117994512</v>
+      </c>
+      <c r="J5">
+        <v>0.02496400117994513</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.924589</v>
+      </c>
+      <c r="O5">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P5">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q5">
+        <v>0.01099788342288889</v>
+      </c>
+      <c r="R5">
+        <v>0.098980950806</v>
+      </c>
+      <c r="S5">
+        <v>0.002299423066830859</v>
+      </c>
+      <c r="T5">
+        <v>0.002299423066830859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.03568466666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.107054</v>
+      </c>
+      <c r="I6">
+        <v>0.02496400117994512</v>
+      </c>
+      <c r="J6">
+        <v>0.02496400117994513</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.621118</v>
+      </c>
+      <c r="O6">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P6">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q6">
+        <v>0.07875746293022222</v>
+      </c>
+      <c r="R6">
+        <v>0.708817166372</v>
+      </c>
+      <c r="S6">
+        <v>0.01646650723446742</v>
+      </c>
+      <c r="T6">
+        <v>0.01646650723446743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.03568466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.107054</v>
+      </c>
+      <c r="I7">
+        <v>0.02496400117994512</v>
+      </c>
+      <c r="J7">
+        <v>0.02496400117994513</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.83074</v>
+      </c>
+      <c r="N7">
+        <v>2.49222</v>
+      </c>
+      <c r="O7">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P7">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q7">
+        <v>0.02964467998666667</v>
+      </c>
+      <c r="R7">
+        <v>0.26680211988</v>
+      </c>
+      <c r="S7">
+        <v>0.006198070878646838</v>
+      </c>
+      <c r="T7">
+        <v>0.006198070878646841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.01641</v>
+      </c>
+      <c r="H8">
+        <v>0.04923</v>
+      </c>
+      <c r="I8">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="J8">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.924589</v>
+      </c>
+      <c r="O8">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P8">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q8">
+        <v>0.005057501830000001</v>
+      </c>
+      <c r="R8">
+        <v>0.04551751647000001</v>
+      </c>
+      <c r="S8">
+        <v>0.001057415860968139</v>
+      </c>
+      <c r="T8">
+        <v>0.00105741586096814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.01641</v>
+      </c>
+      <c r="H9">
+        <v>0.04923</v>
+      </c>
+      <c r="I9">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="J9">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.621118</v>
+      </c>
+      <c r="O9">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P9">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q9">
+        <v>0.03621751546</v>
+      </c>
+      <c r="R9">
+        <v>0.32595763914</v>
+      </c>
+      <c r="S9">
+        <v>0.007572310713778387</v>
+      </c>
+      <c r="T9">
+        <v>0.007572310713778388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.01641</v>
+      </c>
+      <c r="H10">
+        <v>0.04923</v>
+      </c>
+      <c r="I10">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="J10">
+        <v>0.01147997999223475</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.83074</v>
+      </c>
+      <c r="N10">
+        <v>2.49222</v>
+      </c>
+      <c r="O10">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P10">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q10">
+        <v>0.0136324434</v>
+      </c>
+      <c r="R10">
+        <v>0.1226919906</v>
+      </c>
+      <c r="S10">
+        <v>0.00285025341748822</v>
+      </c>
+      <c r="T10">
+        <v>0.002850253417488221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.306072666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.918218</v>
+      </c>
+      <c r="I11">
+        <v>0.9136921439206591</v>
+      </c>
+      <c r="J11">
+        <v>0.9136921439206592</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.924589</v>
+      </c>
+      <c r="O11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q11">
+        <v>0.4025268069335556</v>
+      </c>
+      <c r="R11">
+        <v>3.622741262402001</v>
+      </c>
+      <c r="S11">
+        <v>0.08415977777637337</v>
+      </c>
+      <c r="T11">
+        <v>0.08415977777637339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.11407418597315</v>
-      </c>
-      <c r="H5">
-        <v>1.11407418597315</v>
-      </c>
-      <c r="I5">
-        <v>0.9462870875684563</v>
-      </c>
-      <c r="J5">
-        <v>0.9462870875684563</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="N5">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="O5">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="P5">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="Q5">
-        <v>0.6881346173861225</v>
-      </c>
-      <c r="R5">
-        <v>0.6881346173861225</v>
-      </c>
-      <c r="S5">
-        <v>0.2123171719786376</v>
-      </c>
-      <c r="T5">
-        <v>0.2123171719786376</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.306072666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.918218</v>
+      </c>
+      <c r="I12">
+        <v>0.9136921439206591</v>
+      </c>
+      <c r="J12">
+        <v>0.9136921439206592</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.621118</v>
+      </c>
+      <c r="O12">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P12">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q12">
+        <v>2.882553747524889</v>
+      </c>
+      <c r="R12">
+        <v>25.942983727724</v>
+      </c>
+      <c r="S12">
+        <v>0.6026805634840406</v>
+      </c>
+      <c r="T12">
+        <v>0.6026805634840409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.306072666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.918218</v>
+      </c>
+      <c r="I13">
+        <v>0.9136921439206591</v>
+      </c>
+      <c r="J13">
+        <v>0.9136921439206592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.83074</v>
+      </c>
+      <c r="N13">
+        <v>2.49222</v>
+      </c>
+      <c r="O13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q13">
+        <v>1.085006807106667</v>
+      </c>
+      <c r="R13">
+        <v>9.765061263960002</v>
+      </c>
+      <c r="S13">
+        <v>0.226851802660245</v>
+      </c>
+      <c r="T13">
+        <v>0.226851802660245</v>
       </c>
     </row>
   </sheetData>
